--- a/report/report2/report_2.xlsx
+++ b/report/report2/report_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>N</t>
   </si>
@@ -37,12 +37,6 @@
     <t>count_A</t>
   </si>
   <si>
-    <t>count_B</t>
-  </si>
-  <si>
-    <t>count_C</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -67,6 +61,9 @@
     <t>A_5.png</t>
   </si>
   <si>
+    <t>A_16.png</t>
+  </si>
+  <si>
     <t>B_6.png</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>B_10.png</t>
-  </si>
-  <si>
-    <t>B_16.png</t>
   </si>
   <si>
     <t>C_11.png</t>
@@ -458,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,475 +480,373 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>5692.050157895659</v>
+        <v>4967.267860705722</v>
       </c>
       <c r="F2">
-        <v>5692.050157895659</v>
+        <v>4967.267860705722</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>6168.349617199077</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
+        <v>4383.693191818971</v>
+      </c>
+      <c r="F3">
+        <v>4383.693191818971</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>6106.259657105977</v>
+        <v>5332.34601277899</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>6399.769058333277</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
+        <v>4486.362112001215</v>
+      </c>
+      <c r="F5">
+        <v>4486.362112001215</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3542.938893066038</v>
+      </c>
+      <c r="F6">
+        <v>3542.938893066038</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>5000</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>5852.371057955912</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>5993.414302382241</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>5936.902812072975</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>6218.418368041829</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>5720.839448892094</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>3705.765777811652</v>
-      </c>
-      <c r="F7">
-        <v>3705.765777811652</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>3187.368820830121</v>
-      </c>
-      <c r="F8">
-        <v>3187.368820830121</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>3458.148637638354</v>
-      </c>
-      <c r="F9">
-        <v>3458.148637638354</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>3918.431956790879</v>
-      </c>
-      <c r="F10">
-        <v>3918.431956790879</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11">
-        <v>4440.300778100511</v>
-      </c>
-      <c r="F11">
-        <v>4440.300778100511</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>6000</v>
+      <c r="D12" t="s">
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>5594.839050410655</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>5228.657762753267</v>
-      </c>
-      <c r="F13">
-        <v>5228.657762753267</v>
+        <v>5822.182494563357</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>5449.01073590427</v>
-      </c>
-      <c r="F14">
-        <v>5449.01073590427</v>
+        <v>5001.906936359372</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>5260.522122375307</v>
-      </c>
-      <c r="F15">
-        <v>5260.522122375307</v>
+        <v>5381.255243899884</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>5376.830107042624</v>
-      </c>
-      <c r="F16">
-        <v>5376.830107042624</v>
+        <v>5391.639175612552</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>5299.021513449441</v>
-      </c>
-      <c r="F17">
-        <v>5299.021513449441</v>
+        <v>5454.839869327055</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
